--- a/biology/Médecine/Charles_de_Barbeyrac/Charles_de_Barbeyrac.xlsx
+++ b/biology/Médecine/Charles_de_Barbeyrac/Charles_de_Barbeyrac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles de Barbeyrac ou Charles Barbeyrac, né à Céreste, en Provence[1], en 1629 et mort à Montpellier en 1699, est un médecin français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles de Barbeyrac ou Charles Barbeyrac, né à Céreste, en Provence, en 1629 et mort à Montpellier en 1699, est un médecin français.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d'une famille calviniste du Luberon, à l'époque où la France est régie par l'édit de Nantes (1598-1685), il est l'oncle du juriste Jean Barbeyrac (1674-1744).
-Il fait des études de médecine à l'université de Montpellier et obtient son doctorat en 1649[2].
-Étant protestant, il ne peut pas occuper de chaire de professeur à Montpellier, malgré sa grande réputation qui lui vaut de devenir médecin du cardinal-évêque Emmanuel-Théodose de la Tour d'Auvergne (1643-1715), dit « le cardinal de Bouillon[3] ».
+Il fait des études de médecine à l'université de Montpellier et obtient son doctorat en 1649.
+Étant protestant, il ne peut pas occuper de chaire de professeur à Montpellier, malgré sa grande réputation qui lui vaut de devenir médecin du cardinal-évêque Emmanuel-Théodose de la Tour d'Auvergne (1643-1715), dit « le cardinal de Bouillon ».
 Proche des idées du médecin anglais Thomas Sydenham (1624-1689), il fait la connaissance de John Locke (1633-1704), lui-même médecin, lors de son séjour d'un an à Montpellier (1676-1677).
-À partir de 1683, Barbeyrac participe à la formation de Pierre Chirac[2] (1657-1732), nommé premier médecin de Louis XV en 1730.
+À partir de 1683, Barbeyrac participe à la formation de Pierre Chirac (1657-1732), nommé premier médecin de Louis XV en 1730.
 En 1685, l'édit de Nantes est révoqué par Louis XIV. La famille de Jean Barbeyrac quitte la France pour éviter les persécutions.
 </t>
         </is>
@@ -547,10 +561,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Traités nouveaux de médecine, contenans les maladies de la poitrine, les maladies des femmes, &amp; quelques autres maladies particulières : selon les nouvelles opinions, Paris, Jean Certe, 1684.
-Deux autres textes imprimés sous son nom ne sont pas de lui[4].
+Deux autres textes imprimés sous son nom ne sont pas de lui.
 </t>
         </is>
       </c>
